--- a/users_bonus_export.xlsx
+++ b/users_bonus_export.xlsx
@@ -22,187 +22,187 @@
     <t>Bonus</t>
   </si>
   <si>
+    <t>S T</t>
+  </si>
+  <si>
+    <t>998906114170</t>
+  </si>
+  <si>
+    <t>Qosimova Nigora</t>
+  </si>
+  <si>
+    <t>998914137977</t>
+  </si>
+  <si>
+    <t>Gʻulomova Shahnozaxon</t>
+  </si>
+  <si>
+    <t>+998914126003</t>
+  </si>
+  <si>
+    <t>Jumayeva Zarina</t>
+  </si>
+  <si>
+    <t>998914166880</t>
+  </si>
+  <si>
+    <t>Turayeva Maftuna</t>
+  </si>
+  <si>
+    <t>998978555705</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Farrux Mirzayev</t>
+  </si>
+  <si>
+    <t>998906376007</t>
+  </si>
+  <si>
+    <t>Mavlonova Lola</t>
+  </si>
+  <si>
+    <t>998993111567</t>
+  </si>
+  <si>
+    <t>Hasanov Sardor</t>
+  </si>
+  <si>
+    <t>998934794554</t>
+  </si>
+  <si>
+    <t>Teshayeva Marjona</t>
+  </si>
+  <si>
+    <t>998918311114</t>
+  </si>
+  <si>
+    <t>Abduaxatov Shaxram</t>
+  </si>
+  <si>
+    <t>998913125544</t>
+  </si>
+  <si>
+    <t>sardor</t>
+  </si>
+  <si>
+    <t>998954000043</t>
+  </si>
+  <si>
+    <t>Mirzayev Adiz</t>
+  </si>
+  <si>
+    <t>998936819229</t>
+  </si>
+  <si>
+    <t>Dilnoza Narziyeva</t>
+  </si>
+  <si>
+    <t>+998902980525</t>
+  </si>
+  <si>
+    <t>Ulukova Sanobar</t>
+  </si>
+  <si>
+    <t>998906376066</t>
+  </si>
+  <si>
+    <t>Jo’rayev Sherali</t>
+  </si>
+  <si>
+    <t>998939679896</t>
+  </si>
+  <si>
+    <t>Maksudov Mironshokh</t>
+  </si>
+  <si>
+    <t>998934599898</t>
+  </si>
+  <si>
+    <t>Nasullayeva Muqaddas</t>
+  </si>
+  <si>
+    <t>998919210604</t>
+  </si>
+  <si>
+    <t>Raximov Homidjon</t>
+  </si>
+  <si>
+    <t>998973003333</t>
+  </si>
+  <si>
+    <t>Kayumova Muxarram</t>
+  </si>
+  <si>
+    <t>998914474004</t>
+  </si>
+  <si>
+    <t>Asrorova sabina</t>
+  </si>
+  <si>
+    <t>910806699</t>
+  </si>
+  <si>
+    <t>Qurbonova Feruza</t>
+  </si>
+  <si>
+    <t>998914019454</t>
+  </si>
+  <si>
+    <t>Xasanova Nazira</t>
+  </si>
+  <si>
+    <t>998904147707</t>
+  </si>
+  <si>
+    <t>Boboyev Umid</t>
+  </si>
+  <si>
+    <t>998914429696</t>
+  </si>
+  <si>
+    <t>Naimova Sobira</t>
+  </si>
+  <si>
+    <t>998936223621</t>
+  </si>
+  <si>
+    <t>Axadov Shoxrux</t>
+  </si>
+  <si>
+    <t>998919262777</t>
+  </si>
+  <si>
+    <t>Badalova Muhayyo</t>
+  </si>
+  <si>
+    <t>998918257393</t>
+  </si>
+  <si>
+    <t>Jumayeva Nilufar</t>
+  </si>
+  <si>
+    <t>998914064446</t>
+  </si>
+  <si>
+    <t>Mirzayev Farrux</t>
+  </si>
+  <si>
+    <t>998931996007</t>
+  </si>
+  <si>
+    <t>Ergashev Pulat</t>
+  </si>
+  <si>
+    <t>998930788047</t>
+  </si>
+  <si>
     <t>Falonchi</t>
   </si>
   <si>
     <t>998200125969</t>
-  </si>
-  <si>
-    <t>S T</t>
-  </si>
-  <si>
-    <t>998906114170</t>
-  </si>
-  <si>
-    <t>Ergashev Pulat</t>
-  </si>
-  <si>
-    <t>998930788047</t>
-  </si>
-  <si>
-    <t>Qosimova Nigora</t>
-  </si>
-  <si>
-    <t>998914137977</t>
-  </si>
-  <si>
-    <t>Gʻulomova Shahnozaxon</t>
-  </si>
-  <si>
-    <t>+998914126003</t>
-  </si>
-  <si>
-    <t>Jumayeva Zarina</t>
-  </si>
-  <si>
-    <t>998914166880</t>
-  </si>
-  <si>
-    <t>Turayeva Maftuna</t>
-  </si>
-  <si>
-    <t>998978555705</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Farrux Mirzayev</t>
-  </si>
-  <si>
-    <t>998906376007</t>
-  </si>
-  <si>
-    <t>Mavlonova Lola</t>
-  </si>
-  <si>
-    <t>998993111567</t>
-  </si>
-  <si>
-    <t>Hasanov Sardor</t>
-  </si>
-  <si>
-    <t>998934794554</t>
-  </si>
-  <si>
-    <t>Teshayeva Marjona</t>
-  </si>
-  <si>
-    <t>998918311114</t>
-  </si>
-  <si>
-    <t>Abduaxatov Shaxram</t>
-  </si>
-  <si>
-    <t>998913125544</t>
-  </si>
-  <si>
-    <t>sardor</t>
-  </si>
-  <si>
-    <t>998954000043</t>
-  </si>
-  <si>
-    <t>Mirzayev Adiz</t>
-  </si>
-  <si>
-    <t>998936819229</t>
-  </si>
-  <si>
-    <t>Dilnoza Narziyeva</t>
-  </si>
-  <si>
-    <t>+998902980525</t>
-  </si>
-  <si>
-    <t>Ulukova Sanobar</t>
-  </si>
-  <si>
-    <t>998906376066</t>
-  </si>
-  <si>
-    <t>Jo’rayev Sherali</t>
-  </si>
-  <si>
-    <t>998939679896</t>
-  </si>
-  <si>
-    <t>Maksudov Mironshokh</t>
-  </si>
-  <si>
-    <t>998934599898</t>
-  </si>
-  <si>
-    <t>Nasullayeva Muqaddas</t>
-  </si>
-  <si>
-    <t>998919210604</t>
-  </si>
-  <si>
-    <t>Raximov Homidjon</t>
-  </si>
-  <si>
-    <t>998973003333</t>
-  </si>
-  <si>
-    <t>Kayumova Muxarram</t>
-  </si>
-  <si>
-    <t>998914474004</t>
-  </si>
-  <si>
-    <t>Asrorova sabina</t>
-  </si>
-  <si>
-    <t>910806699</t>
-  </si>
-  <si>
-    <t>Qurbonova Feruza</t>
-  </si>
-  <si>
-    <t>998914019454</t>
-  </si>
-  <si>
-    <t>Xasanova Nazira</t>
-  </si>
-  <si>
-    <t>998904147707</t>
-  </si>
-  <si>
-    <t>Boboyev Umid</t>
-  </si>
-  <si>
-    <t>998914429696</t>
-  </si>
-  <si>
-    <t>Naimova Sobira</t>
-  </si>
-  <si>
-    <t>998936223621</t>
-  </si>
-  <si>
-    <t>Axadov Shoxrux</t>
-  </si>
-  <si>
-    <t>998919262777</t>
-  </si>
-  <si>
-    <t>Badalova Muhayyo</t>
-  </si>
-  <si>
-    <t>998918257393</t>
-  </si>
-  <si>
-    <t>Jumayeva Nilufar</t>
-  </si>
-  <si>
-    <t>998914064446</t>
-  </si>
-  <si>
-    <t>Mirzayev Farrux</t>
-  </si>
-  <si>
-    <t>998931996007</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1663</v>
+        <v>10654</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>11018</v>
+        <v>7206</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,26 +658,26 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>10654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8">
-        <v>7206</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -694,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>3634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,21 +721,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>3745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -754,10 +754,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>33</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>13524</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>35</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>37</v>
       </c>
       <c r="C21">
-        <v>13524</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="C22">
-        <v>2448</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>3030</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>43</v>
       </c>
       <c r="C24">
-        <v>1981</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,37 +859,37 @@
         <v>45</v>
       </c>
       <c r="C25">
-        <v>1966</v>
+        <v>16696</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>5569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27">
-        <v>16696</v>
+        <v>22054</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>22054</v>
+        <v>17166</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>55</v>
       </c>
       <c r="C31">
-        <v>17166</v>
+        <v>24057</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>57</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>7963</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>59</v>
       </c>
       <c r="C33">
-        <v>24057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
         <v>61</v>
       </c>
       <c r="C34">
-        <v>7963</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>63</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
